--- a/www/ig/fhir/cds/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/www/ig/fhir/cds/StructureDefinition-cds-ihe-careteam.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:09:14+00:00</t>
+    <t>2025-11-17T14:37:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -430,7 +430,7 @@
     <t>CareTeam.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -468,7 +468,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -492,7 +492,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -535,7 +535,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -698,7 +698,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -786,7 +786,7 @@
     <t>CareTeam.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -848,7 +848,7 @@
     <t>Indicates the type of care team.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-team-category</t>
+    <t>http://hl7.org/fhir/ValueSet/care-team-category|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -893,7 +893,7 @@
     <t>CareTeam.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
     <t>Indicates the reason for the care team.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.why[x]</t>
@@ -1153,7 +1153,7 @@
     <t>CareTeam.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition)
+    <t xml:space="preserve">Reference(Condition|4.0.1)
 </t>
   </si>
   <si>
@@ -1527,17 +1527,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.22265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.22265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.76953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.76953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="235.8125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="202.16796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1546,25 +1546,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.81640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.7109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="155.80078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="133.5703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2346,7 +2346,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>120</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>193</v>
       </c>
@@ -7569,12 +7569,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM54">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
